--- a/docs/ValueSet-ValueSet-pregnancy-report-edit-flags.xlsx
+++ b/docs/ValueSet-ValueSet-pregnancy-report-edit-flags.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ValueSet - Pregnancy Report Edit Flags (NCHS)</t>
+    <t>Pregnancy Report Edit Flags (NCHS)</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T11:56:10-05:00</t>
+    <t>2024-02-27T09:44:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ValueSet-pregnancy-report-edit-flags.xlsx
+++ b/docs/ValueSet-ValueSet-pregnancy-report-edit-flags.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ValueSet-pregnancy-report-edit-flags.xlsx
+++ b/docs/ValueSet-ValueSet-pregnancy-report-edit-flags.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
